--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H2">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I2">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J2">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N2">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O2">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P2">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q2">
-        <v>19.78770681787878</v>
+        <v>24.75368928569656</v>
       </c>
       <c r="R2">
-        <v>19.78770681787878</v>
+        <v>222.783203571269</v>
       </c>
       <c r="S2">
-        <v>0.02509349915153518</v>
+        <v>0.02721462061045041</v>
       </c>
       <c r="T2">
-        <v>0.02509349915153518</v>
+        <v>0.0272146206104504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H3">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I3">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J3">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N3">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O3">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P3">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q3">
-        <v>45.21695651555501</v>
+        <v>47.50790080561089</v>
       </c>
       <c r="R3">
-        <v>45.21695651555501</v>
+        <v>427.571107250498</v>
       </c>
       <c r="S3">
-        <v>0.05734124072087479</v>
+        <v>0.05223098187512172</v>
       </c>
       <c r="T3">
-        <v>0.05734124072087479</v>
+        <v>0.05223098187512172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H4">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I4">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J4">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N4">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O4">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P4">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q4">
-        <v>46.89965490841085</v>
+        <v>51.27059314260822</v>
       </c>
       <c r="R4">
-        <v>46.89965490841085</v>
+        <v>461.4353382834739</v>
       </c>
       <c r="S4">
-        <v>0.05947513077099753</v>
+        <v>0.05636774885330308</v>
       </c>
       <c r="T4">
-        <v>0.05947513077099753</v>
+        <v>0.05636774885330308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H5">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I5">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J5">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N5">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O5">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P5">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q5">
-        <v>38.16395462412022</v>
+        <v>45.46131675478023</v>
       </c>
       <c r="R5">
-        <v>38.16395462412022</v>
+        <v>409.151850793022</v>
       </c>
       <c r="S5">
-        <v>0.04839707661902019</v>
+        <v>0.04998093309055777</v>
       </c>
       <c r="T5">
-        <v>0.04839707661902019</v>
+        <v>0.04998093309055776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H6">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J6">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N6">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O6">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P6">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q6">
-        <v>42.8881141927173</v>
+        <v>52.33226554015534</v>
       </c>
       <c r="R6">
-        <v>42.8881141927173</v>
+        <v>470.9903898613981</v>
       </c>
       <c r="S6">
-        <v>0.05438795242981389</v>
+        <v>0.05753496926955544</v>
       </c>
       <c r="T6">
-        <v>0.05438795242981389</v>
+        <v>0.05753496926955544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H7">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J7">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N7">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O7">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P7">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q7">
-        <v>98.00377640192585</v>
+        <v>100.4373954734573</v>
       </c>
       <c r="R7">
-        <v>98.00377640192585</v>
+        <v>903.9365592611161</v>
       </c>
       <c r="S7">
-        <v>0.1242820960823493</v>
+        <v>0.1104225548508978</v>
       </c>
       <c r="T7">
-        <v>0.1242820960823493</v>
+        <v>0.1104225548508979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H8">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J8">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N8">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O8">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P8">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q8">
-        <v>101.6508771745883</v>
+        <v>108.3921779809453</v>
       </c>
       <c r="R8">
-        <v>101.6508771745883</v>
+        <v>975.529601828508</v>
       </c>
       <c r="S8">
-        <v>0.1289071150896896</v>
+        <v>0.1191681759775646</v>
       </c>
       <c r="T8">
-        <v>0.1289071150896896</v>
+        <v>0.1191681759775646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H9">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J9">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N9">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O9">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P9">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q9">
-        <v>82.71701511597442</v>
+        <v>96.11067153496934</v>
       </c>
       <c r="R9">
-        <v>82.71701511597442</v>
+        <v>864.9960438147242</v>
       </c>
       <c r="S9">
-        <v>0.1048964070336239</v>
+        <v>0.1056656820828396</v>
       </c>
       <c r="T9">
-        <v>0.1048964070336239</v>
+        <v>0.1056656820828396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H10">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I10">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J10">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N10">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O10">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P10">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q10">
-        <v>27.77285486436297</v>
+        <v>37.32427109979822</v>
       </c>
       <c r="R10">
-        <v>27.77285486436297</v>
+        <v>335.918439898184</v>
       </c>
       <c r="S10">
-        <v>0.03521975115099824</v>
+        <v>0.04103492880673541</v>
       </c>
       <c r="T10">
-        <v>0.03521975115099824</v>
+        <v>0.04103492880673541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H11">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I11">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J11">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N11">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O11">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P11">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q11">
-        <v>63.4638456225794</v>
+        <v>71.63367644254757</v>
       </c>
       <c r="R11">
-        <v>63.4638456225794</v>
+        <v>644.7030879829281</v>
       </c>
       <c r="S11">
-        <v>0.08048077379256791</v>
+        <v>0.07875526370294073</v>
       </c>
       <c r="T11">
-        <v>0.08048077379256791</v>
+        <v>0.07875526370294073</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H12">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I12">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J12">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N12">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O12">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P12">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q12">
-        <v>65.82558155668254</v>
+        <v>77.30716402778489</v>
       </c>
       <c r="R12">
-        <v>65.82558155668254</v>
+        <v>695.7644762500639</v>
       </c>
       <c r="S12">
-        <v>0.0834757756492267</v>
+        <v>0.08499279098173518</v>
       </c>
       <c r="T12">
-        <v>0.0834757756492267</v>
+        <v>0.08499279098173518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H13">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I13">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J13">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N13">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O13">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P13">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q13">
-        <v>53.56466934653357</v>
+        <v>68.5477825759769</v>
       </c>
       <c r="R13">
-        <v>53.56466934653357</v>
+        <v>616.9300431837921</v>
       </c>
       <c r="S13">
-        <v>0.06792727409853504</v>
+        <v>0.07536258029912328</v>
       </c>
       <c r="T13">
-        <v>0.06792727409853504</v>
+        <v>0.07536258029912327</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H14">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I14">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J14">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N14">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O14">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P14">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q14">
-        <v>13.52917203088811</v>
+        <v>18.82147903079767</v>
       </c>
       <c r="R14">
-        <v>13.52917203088811</v>
+        <v>169.393311277179</v>
       </c>
       <c r="S14">
-        <v>0.01715682721614416</v>
+        <v>0.02069264929517729</v>
       </c>
       <c r="T14">
-        <v>0.01715682721614416</v>
+        <v>0.02069264929517728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H15">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I15">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J15">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N15">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O15">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P15">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q15">
-        <v>30.91555727212403</v>
+        <v>36.12265422296866</v>
       </c>
       <c r="R15">
-        <v>30.91555727212403</v>
+        <v>325.103888006718</v>
       </c>
       <c r="S15">
-        <v>0.03920512454107827</v>
+        <v>0.03971385108597212</v>
       </c>
       <c r="T15">
-        <v>0.03920512454107827</v>
+        <v>0.03971385108597212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H16">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I16">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J16">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N16">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O16">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P16">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q16">
-        <v>32.06604510998082</v>
+        <v>38.98361907159266</v>
       </c>
       <c r="R16">
-        <v>32.06604510998082</v>
+        <v>350.852571644334</v>
       </c>
       <c r="S16">
-        <v>0.04066409934037267</v>
+        <v>0.04285924376003006</v>
       </c>
       <c r="T16">
-        <v>0.04066409934037267</v>
+        <v>0.04285924376003006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H17">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I17">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J17">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N17">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O17">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P17">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q17">
-        <v>26.09330693247454</v>
+        <v>34.56653309884467</v>
       </c>
       <c r="R17">
-        <v>26.09330693247454</v>
+        <v>311.0987978896021</v>
       </c>
       <c r="S17">
-        <v>0.0330898563131727</v>
+        <v>0.03800302545799541</v>
       </c>
       <c r="T17">
-        <v>0.0330898563131727</v>
+        <v>0.0380030254579954</v>
       </c>
     </row>
   </sheetData>
